--- a/Testing/LSTM_BTC_result.xlsx
+++ b/Testing/LSTM_BTC_result.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>404.9389493985666</v>
+        <v>455.4067930230596</v>
       </c>
       <c r="F1" t="n">
-        <v>343.6649172295271</v>
+        <v>394.6326369577556</v>
       </c>
       <c r="G1" t="n">
-        <v>1.764408631992459</v>
+        <v>2.03277572631054</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>333.2710682537069</v>
+        <v>429.315007328252</v>
       </c>
       <c r="F2" t="n">
-        <v>278.0390407961099</v>
+        <v>366.369280510576</v>
       </c>
       <c r="G2" t="n">
-        <v>1.414952916674864</v>
+        <v>1.888526118726293</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>453.8310669281656</v>
+        <v>429.1014065499782</v>
       </c>
       <c r="F3" t="n">
-        <v>391.912255020713</v>
+        <v>372.4943517492232</v>
       </c>
       <c r="G3" t="n">
-        <v>2.031448568016485</v>
+        <v>1.920745115359905</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>398.0717656769985</v>
+        <v>408.4611204478023</v>
       </c>
       <c r="F4" t="n">
-        <v>335.3213128076976</v>
+        <v>351.6231000836525</v>
       </c>
       <c r="G4" t="n">
-        <v>1.735633664360191</v>
+        <v>1.816019211201086</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>386.8907811716379</v>
+        <v>408.1023329436844</v>
       </c>
       <c r="F5" t="n">
-        <v>327.1455636557404</v>
+        <v>344.6783291034303</v>
       </c>
       <c r="G5" t="n">
-        <v>1.693092143556501</v>
+        <v>1.790578766681609</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>441.1755051853553</v>
+        <v>483.8250592933275</v>
       </c>
       <c r="F6" t="n">
-        <v>388.8681495782304</v>
+        <v>429.376001292125</v>
       </c>
       <c r="G6" t="n">
-        <v>2.01421653995263</v>
+        <v>2.213983706140622</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>395.1041805839776</v>
+        <v>497.7148287983183</v>
       </c>
       <c r="F7" t="n">
-        <v>307.9466872898654</v>
+        <v>440.959837588134</v>
       </c>
       <c r="G7" t="n">
-        <v>1.581520030182397</v>
+        <v>2.288030458829565</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>406.2086033697782</v>
+        <v>342.2456872953408</v>
       </c>
       <c r="F8" t="n">
-        <v>344.1892680115281</v>
+        <v>287.5695438052704</v>
       </c>
       <c r="G8" t="n">
-        <v>1.788539360390665</v>
+        <v>1.478241534113589</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>496.7610031985911</v>
+        <v>450.7328889541342</v>
       </c>
       <c r="F9" t="n">
-        <v>437.1187426978272</v>
+        <v>399.5454225173285</v>
       </c>
       <c r="G9" t="n">
-        <v>2.261839513508248</v>
+        <v>2.070988307673572</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>356.9328889510239</v>
+        <v>338.2333702257428</v>
       </c>
       <c r="F10" t="n">
-        <v>304.1010632204618</v>
+        <v>284.7012160686546</v>
       </c>
       <c r="G10" t="n">
-        <v>1.592851422887816</v>
+        <v>1.485954384560744</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>359.4503434168092</v>
+        <v>361.6356380080395</v>
       </c>
       <c r="F11" t="n">
-        <v>309.2315395428081</v>
+        <v>310.5571948494271</v>
       </c>
       <c r="G11" t="n">
-        <v>1.619313613321952</v>
+        <v>1.624162071893684</v>
       </c>
     </row>
     <row r="12">
@@ -712,13 +712,13 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>424.8578107788535</v>
+        <v>365.5268694465542</v>
       </c>
       <c r="F12" t="n">
-        <v>376.9279493050554</v>
+        <v>315.9527227384088</v>
       </c>
       <c r="G12" t="n">
-        <v>1.971545738547625</v>
+        <v>1.652299289936451</v>
       </c>
     </row>
     <row r="13">
@@ -737,13 +737,13 @@
         <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>313.8560092833209</v>
+        <v>303.4043410405685</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2774800747482</v>
+        <v>255.5812842973232</v>
       </c>
       <c r="G13" t="n">
-        <v>1.37876249630851</v>
+        <v>1.33345484339268</v>
       </c>
     </row>
     <row r="14">
@@ -762,13 +762,13 @@
         <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>316.0566504841478</v>
+        <v>325.4784323260343</v>
       </c>
       <c r="F14" t="n">
-        <v>269.5773692363118</v>
+        <v>277.1002519344534</v>
       </c>
       <c r="G14" t="n">
-        <v>1.411252954862071</v>
+        <v>1.450712184393545</v>
       </c>
     </row>
     <row r="15">
@@ -787,13 +787,13 @@
         <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>299.6633859299992</v>
+        <v>379.2819990996895</v>
       </c>
       <c r="F15" t="n">
-        <v>257.2941130598588</v>
+        <v>329.4279062500006</v>
       </c>
       <c r="G15" t="n">
-        <v>1.341103442410486</v>
+        <v>1.726546655590074</v>
       </c>
     </row>
     <row r="16">
@@ -812,13 +812,13 @@
         <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>333.6897701253047</v>
+        <v>294.4384739328564</v>
       </c>
       <c r="F16" t="n">
-        <v>283.0269975984637</v>
+        <v>249.1668286179496</v>
       </c>
       <c r="G16" t="n">
-        <v>1.483246714869039</v>
+        <v>1.297031212560302</v>
       </c>
     </row>
     <row r="17">
@@ -837,13 +837,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>276.3022381476441</v>
+        <v>286.9883375851172</v>
       </c>
       <c r="F17" t="n">
-        <v>232.3896324597743</v>
+        <v>243.5471921755498</v>
       </c>
       <c r="G17" t="n">
-        <v>1.210783992539299</v>
+        <v>1.267755419041232</v>
       </c>
     </row>
     <row r="18">
@@ -862,13 +862,13 @@
         <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>344.1685057501782</v>
+        <v>303.5698391722004</v>
       </c>
       <c r="F18" t="n">
-        <v>297.9145095986441</v>
+        <v>259.6661419470008</v>
       </c>
       <c r="G18" t="n">
-        <v>1.559225882302592</v>
+        <v>1.352728694665132</v>
       </c>
     </row>
     <row r="19">
@@ -887,13 +887,13 @@
         <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>1917.667594213588</v>
+        <v>1710.538078473192</v>
       </c>
       <c r="F19" t="n">
-        <v>1887.754048931312</v>
+        <v>1679.28078694132</v>
       </c>
       <c r="G19" t="n">
-        <v>9.342906599792848</v>
+        <v>8.292885792619543</v>
       </c>
     </row>
     <row r="20">
@@ -912,13 +912,13 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>376.9132664458584</v>
+        <v>1503.482844758048</v>
       </c>
       <c r="F20" t="n">
-        <v>271.4766820365029</v>
+        <v>1475.388838820504</v>
       </c>
       <c r="G20" t="n">
-        <v>1.267604081456063</v>
+        <v>7.293761066339431</v>
       </c>
     </row>
     <row r="21">
@@ -937,13 +937,13 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>411.9831919896943</v>
+        <v>696.0310617874234</v>
       </c>
       <c r="F21" t="n">
-        <v>309.221015992735</v>
+        <v>630.1397378181771</v>
       </c>
       <c r="G21" t="n">
-        <v>1.444247144049668</v>
+        <v>2.986604255957733</v>
       </c>
     </row>
     <row r="22">
@@ -962,13 +962,13 @@
         <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>855.2534042070652</v>
+        <v>767.6612288790386</v>
       </c>
       <c r="F22" t="n">
-        <v>766.4882541501574</v>
+        <v>702.1745392566936</v>
       </c>
       <c r="G22" t="n">
-        <v>3.676710838314095</v>
+        <v>3.427814142319609</v>
       </c>
     </row>
     <row r="23">
@@ -987,13 +987,13 @@
         <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>677.9095728784064</v>
+        <v>497.4009020458487</v>
       </c>
       <c r="F23" t="n">
-        <v>546.9495048931313</v>
+        <v>371.5191389668996</v>
       </c>
       <c r="G23" t="n">
-        <v>2.785890832623101</v>
+        <v>1.725419891833339</v>
       </c>
     </row>
     <row r="24">
@@ -1012,13 +1012,13 @@
         <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>953.4043804656784</v>
+        <v>1598.476350245561</v>
       </c>
       <c r="F24" t="n">
-        <v>894.6014723297919</v>
+        <v>1566.042600711039</v>
       </c>
       <c r="G24" t="n">
-        <v>4.371893581403059</v>
+        <v>7.768664233632903</v>
       </c>
     </row>
     <row r="25">
@@ -1037,13 +1037,13 @@
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>573.8206221946621</v>
+        <v>686.3636871275337</v>
       </c>
       <c r="F25" t="n">
-        <v>515.1894213121399</v>
+        <v>640.8511194505868</v>
       </c>
       <c r="G25" t="n">
-        <v>2.53730404914976</v>
+        <v>3.19301935694511</v>
       </c>
     </row>
     <row r="26">
@@ -1062,13 +1062,13 @@
         <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>331.6646818276062</v>
+        <v>374.425135257419</v>
       </c>
       <c r="F26" t="n">
-        <v>261.5137438010332</v>
+        <v>317.5235739946821</v>
       </c>
       <c r="G26" t="n">
-        <v>1.259064186061658</v>
+        <v>1.56022741903097</v>
       </c>
     </row>
     <row r="27">
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>417.4854066942971</v>
+        <v>556.0350768064419</v>
       </c>
       <c r="F27" t="n">
-        <v>299.5700460269575</v>
+        <v>476.2976606865445</v>
       </c>
       <c r="G27" t="n">
-        <v>1.430447752876498</v>
+        <v>2.274929853078703</v>
       </c>
     </row>
   </sheetData>
